--- a/data/Spreadsheet_Data/VideoSegment.xlsx
+++ b/data/Spreadsheet_Data/VideoSegment.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E567A3A-BF32-5142-BAF9-228F8A9EE493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A9861-7CA2-DF4C-B8C2-3BE865CE6874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33120" yWindow="700" windowWidth="30660" windowHeight="21040" xr2:uid="{18A4F225-AC8C-C14A-A578-B1508D9DF6E2}"/>
+    <workbookView xWindow="17840" yWindow="7580" windowWidth="30660" windowHeight="21040" xr2:uid="{18A4F225-AC8C-C14A-A578-B1508D9DF6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,6 +573,9 @@
       <c r="E3">
         <v>2517</v>
       </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
